--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -14,17 +14,18 @@
     <x:sheet name="Numbers" sheetId="7" r:id="rId7"/>
     <x:sheet name="TimeSpans" sheetId="8" r:id="rId8"/>
     <x:sheet name="Dates" sheetId="9" r:id="rId9"/>
-    <x:sheet name="Include Blanks" sheetId="10" r:id="rId10"/>
-    <x:sheet name="Include Blanks Column" sheetId="11" r:id="rId11"/>
-    <x:sheet name="Include Blanks Column Desc" sheetId="12" r:id="rId12"/>
-    <x:sheet name="Case Sensitive" sheetId="13" r:id="rId13"/>
-    <x:sheet name="Case Sensitive Column" sheetId="14" r:id="rId14"/>
-    <x:sheet name="Case Sensitive Column Desc" sheetId="15" r:id="rId15"/>
-    <x:sheet name="Simple" sheetId="16" r:id="rId16"/>
-    <x:sheet name="Simple Desc" sheetId="17" r:id="rId17"/>
-    <x:sheet name="Simple Columns" sheetId="18" r:id="rId18"/>
-    <x:sheet name="Simple Column" sheetId="19" r:id="rId19"/>
-    <x:sheet name="Simple Column Desc" sheetId="20" r:id="rId20"/>
+    <x:sheet name="Formulas" sheetId="10" r:id="rId10"/>
+    <x:sheet name="Include Blanks" sheetId="11" r:id="rId11"/>
+    <x:sheet name="Include Blanks Column" sheetId="12" r:id="rId12"/>
+    <x:sheet name="Include Blanks Column Desc" sheetId="13" r:id="rId13"/>
+    <x:sheet name="Case Sensitive" sheetId="14" r:id="rId14"/>
+    <x:sheet name="Case Sensitive Column" sheetId="15" r:id="rId15"/>
+    <x:sheet name="Case Sensitive Column Desc" sheetId="16" r:id="rId16"/>
+    <x:sheet name="Simple" sheetId="17" r:id="rId17"/>
+    <x:sheet name="Simple Desc" sheetId="18" r:id="rId18"/>
+    <x:sheet name="Simple Columns" sheetId="19" r:id="rId19"/>
+    <x:sheet name="Simple Column" sheetId="20" r:id="rId20"/>
+    <x:sheet name="Simple Column Desc" sheetId="21" r:id="rId21"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Column1</x:t>
   </x:si>
@@ -55,6 +56,15 @@
     <x:t>b</x:t>
   </x:si>
   <x:si>
+    <x:t>Addend1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Addend2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sum</x:t>
+  </x:si>
+  <x:si>
     <x:t>c</x:t>
   </x:si>
 </x:sst>
@@ -65,8 +75,16 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -141,7 +159,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -205,8 +223,11 @@
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -288,6 +309,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -700,46 +725,90 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A8"/>
+  <x:dimension ref="A1:C8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="7" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+      <x:c r="B1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -763,40 +832,40 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="A1" s="7" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="A2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A6" s="8" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -808,6 +877,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="7" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="3" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -907,7 +1032,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -945,7 +1070,7 @@
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
@@ -963,7 +1088,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1101,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
@@ -1019,7 +1144,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1100,106 +1225,6 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C8"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s"/>
-      <x:c r="C2" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="7" t="s"/>
@@ -1240,24 +1265,22 @@
       <x:c r="C1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s"/>
+      <x:c r="C2" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1273,40 +1296,42 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="B6" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1320,6 +1345,106 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="7" t="s"/>
+      <x:c r="B6" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1482,7 @@
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
@@ -1365,62 +1490,6 @@
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="3" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A8"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1545,6 +1614,62 @@
 </x:worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="7" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
@@ -1693,18 +1818,18 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="11">
+      <x:c r="A4" s="4" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="11">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="12">
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="12">
         <x:v>40648</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="4" t="n">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
@@ -1895,90 +2020,65 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C8"/>
+  <x:dimension ref="A1:C5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="7" t="s"/>
-      <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
-        <x:v>5</x:v>
+      <x:c r="A1" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="21" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>5</x:v>
+      <x:c r="A2" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="5">
+        <x:f>A2 + B2</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
+      <x:c r="A3" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="3">
+        <x:f>A3 + B3</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="A4" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="8">
+        <x:f>A4 + B4</x:f>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s">
-        <x:v>5</x:v>
+      <x:c r="A5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:f>A5 + B5</x:f>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -1678,33 +1678,33 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="9" t="n">
+      <x:c r="A1" s="9">
         <x:v>0.378125</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="10" t="n">
+      <x:c r="A2" s="10">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="n">
+      <x:c r="A3" s="5">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="11">
+      <x:c r="A4" s="4">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="11">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="12">
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="12">
         <x:v>40648</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="4" t="n">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
@@ -1734,32 +1734,32 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="5" t="n">
+      <x:c r="A1" s="5">
         <x:v>1.15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="8" t="n">
+      <x:c r="A2" s="8">
         <x:v>1.3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="6" t="n">
+      <x:c r="A3" s="6">
         <x:v>4.15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="n">
+      <x:c r="A4" s="2">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="4" t="n">
+      <x:c r="A5" s="4">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="n">
+      <x:c r="A6" s="1">
         <x:v>1230</x:v>
       </x:c>
     </x:row>
@@ -1790,32 +1790,32 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="13" t="n">
+      <x:c r="A1" s="13">
         <x:v>0.00850694444444444</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="14" t="n">
+      <x:c r="A2" s="14">
         <x:v>0.0446180555555556</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="9" t="n">
+      <x:c r="A3" s="9">
         <x:v>0.0447916666666667</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="15" t="n">
+      <x:c r="A4" s="15">
         <x:v>0.524548611111111</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="10" t="n">
+      <x:c r="A5" s="10">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="16" t="n">
+      <x:c r="A6" s="16">
         <x:v>1.87586805555556</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Column1</x:t>
   </x:si>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1220,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1546,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1723,7 +1723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1891,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -6,25 +6,25 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Table" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Table2" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Rows" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Columns" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Mixed" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Numbers" sheetId="7" r:id="rId7"/>
-    <x:sheet name="TimeSpans" sheetId="8" r:id="rId8"/>
-    <x:sheet name="Dates" sheetId="9" r:id="rId9"/>
-    <x:sheet name="Include Blanks" sheetId="10" r:id="rId10"/>
-    <x:sheet name="Include Blanks Column" sheetId="11" r:id="rId11"/>
-    <x:sheet name="Include Blanks Column Desc" sheetId="12" r:id="rId12"/>
-    <x:sheet name="Case Sensitive" sheetId="13" r:id="rId13"/>
-    <x:sheet name="Case Sensitive Column" sheetId="14" r:id="rId14"/>
-    <x:sheet name="Case Sensitive Column Desc" sheetId="15" r:id="rId15"/>
-    <x:sheet name="Simple" sheetId="16" r:id="rId16"/>
-    <x:sheet name="Simple Desc" sheetId="17" r:id="rId17"/>
-    <x:sheet name="Simple Columns" sheetId="18" r:id="rId18"/>
-    <x:sheet name="Simple Column" sheetId="19" r:id="rId19"/>
-    <x:sheet name="Simple Column Desc" sheetId="20" r:id="rId20"/>
+    <x:sheet name="Table" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Table2" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Rows" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Columns" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Mixed" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Numbers" sheetId="6" r:id="rId7"/>
+    <x:sheet name="TimeSpans" sheetId="7" r:id="rId8"/>
+    <x:sheet name="Dates" sheetId="8" r:id="rId9"/>
+    <x:sheet name="Include Blanks" sheetId="9" r:id="rId10"/>
+    <x:sheet name="Include Blanks Column" sheetId="10" r:id="rId11"/>
+    <x:sheet name="Include Blanks Column Desc" sheetId="11" r:id="rId12"/>
+    <x:sheet name="Case Sensitive" sheetId="12" r:id="rId13"/>
+    <x:sheet name="Case Sensitive Column" sheetId="13" r:id="rId14"/>
+    <x:sheet name="Case Sensitive Column Desc" sheetId="14" r:id="rId15"/>
+    <x:sheet name="Simple" sheetId="15" r:id="rId16"/>
+    <x:sheet name="Simple Desc" sheetId="16" r:id="rId17"/>
+    <x:sheet name="Simple Columns" sheetId="17" r:id="rId18"/>
+    <x:sheet name="Simple Column" sheetId="18" r:id="rId19"/>
+    <x:sheet name="Simple Column Desc" sheetId="19" r:id="rId20"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -88,12 +88,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFCD5C5C"/>
+        <x:fgColor rgb="FFA9A9A9"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA9A9A9"/>
+        <x:fgColor rgb="FFCD5C5C"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -169,7 +169,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -196,7 +196,7 @@
     <x:xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -243,7 +243,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -279,7 +279,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -619,24 +619,24 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -657,7 +657,7 @@
       <x:c r="B6" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="C6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="6" t="s">
@@ -666,10 +666,10 @@
       <x:c r="B7" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="C7" s="6"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
       <x:c r="B8" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -681,7 +681,7 @@
       <x:c r="A9" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="8" t="s"/>
+      <x:c r="B9" s="8"/>
       <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -707,10 +707,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="7" t="s"/>
+      <x:c r="A1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s"/>
+      <x:c r="A2" s="7"/>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="1" t="s">
@@ -733,7 +733,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -773,7 +773,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -793,10 +793,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -830,36 +830,36 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="A2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
         <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -869,7 +869,7 @@
       <x:c r="B5" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="C5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="6" t="s">
@@ -878,19 +878,19 @@
       <x:c r="B6" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="C6" s="6"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B7" s="8" t="s"/>
+      <x:c r="B7" s="8"/>
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
       <x:c r="B8" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -939,7 +939,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -949,10 +949,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -985,7 +985,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -1005,10 +1005,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1032,24 +1032,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1070,7 +1070,7 @@
       <x:c r="B4" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="5" t="s"/>
+      <x:c r="C4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="1" t="s">
@@ -1090,19 +1090,19 @@
       <x:c r="B6" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="6" t="s"/>
+      <x:c r="C6" s="6"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B7" s="8" t="s"/>
+      <x:c r="B7" s="8"/>
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
       <x:c r="B8" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1137,13 +1137,13 @@
       <x:c r="B1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="C1" s="6"/>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="8" t="s"/>
+      <x:c r="B2" s="8"/>
       <x:c r="C2" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1171,24 +1171,24 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="A6" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1199,10 +1199,10 @@
       <x:c r="B7" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C7" s="5" t="s"/>
+      <x:c r="C7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
       <x:c r="B8" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1237,27 +1237,27 @@
       <x:c r="B1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C1" s="6" t="s"/>
+      <x:c r="C1" s="6"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="A2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1279,10 +1279,10 @@
       <x:c r="B5" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="C5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s"/>
+      <x:c r="A6" s="7"/>
       <x:c r="B6" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1305,7 +1305,7 @@
       <x:c r="A8" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B8" s="8" t="s"/>
+      <x:c r="B8" s="8"/>
       <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1331,13 +1331,13 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A1" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
@@ -1351,7 +1351,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -1361,10 +1361,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1402,25 +1402,25 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1474,64 +1474,64 @@
       <x:c r="B3" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="5" t="s"/>
+      <x:c r="C3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s"/>
+      <x:c r="A4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="7"/>
+      <x:c r="B5" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="B6" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>5</x:v>
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="s">
-        <x:v>6</x:v>
+      <x:c r="A7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="A8" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="6"/>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="8" t="s"/>
+      <x:c r="B9" s="8"/>
       <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1563,7 +1563,7 @@
       <x:c r="B1" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="8" t="s"/>
+      <x:c r="C1" s="8"/>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="5" t="s">
@@ -1572,7 +1572,7 @@
       <x:c r="B2" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="5" t="s"/>
+      <x:c r="C2" s="5"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1598,42 +1598,42 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
+      <x:c r="A1" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>3</x:v>
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
+      <x:c r="A5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1641,8 +1641,8 @@
       <x:c r="A6" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>5</x:v>
+      <x:c r="B6" s="6" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
@@ -1654,8 +1654,8 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="8" t="s"/>
+      <x:c r="A8" s="7"/>
+      <x:c r="B8" s="8"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1708,10 +1708,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1749,7 +1749,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="2">
+      <x:c r="A4" s="3">
         <x:v>4.3</x:v>
       </x:c>
     </x:row>
@@ -1764,10 +1764,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1820,10 +1820,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1876,10 +1876,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="7" t="s"/>
+      <x:c r="A7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1902,7 +1902,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="7" t="s"/>
+      <x:c r="A1" s="7"/>
       <x:c r="B1" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1922,24 +1922,24 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1961,7 +1961,7 @@
       <x:c r="B6" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="C6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="6" t="s">
@@ -1970,13 +1970,13 @@
       <x:c r="B7" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s"/>
+      <x:c r="C7" s="6"/>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B8" s="8" t="s"/>
+      <x:c r="B8" s="8"/>
       <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
